--- a/MainAnalysis/manuscript_tables.xlsx
+++ b/MainAnalysis/manuscript_tables.xlsx
@@ -7,12 +7,13 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="cntrl_even_res" sheetId="1" r:id="rId1"/>
-    <sheet name="cntrl_rich_res" sheetId="2" r:id="rId2"/>
-    <sheet name="cntrl_invsim_res" sheetId="3" r:id="rId3"/>
-    <sheet name="ancova_even" sheetId="4" r:id="rId4"/>
-    <sheet name="ancova_invsim" sheetId="5" r:id="rId5"/>
-    <sheet name="ancova_rich" sheetId="6" r:id="rId6"/>
+    <sheet name="table_1" sheetId="1" r:id="rId1"/>
+    <sheet name="cntrl_even_res" sheetId="2" r:id="rId2"/>
+    <sheet name="cntrl_rich_res" sheetId="3" r:id="rId3"/>
+    <sheet name="cntrl_invsim_res" sheetId="4" r:id="rId4"/>
+    <sheet name="ancova_even" sheetId="5" r:id="rId5"/>
+    <sheet name="ancova_invsim" sheetId="6" r:id="rId6"/>
+    <sheet name="ancova_rich" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -356,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,152 +366,135 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>term</t>
+          <t>Microbial community metric</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>Root topology</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>Root architecture</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>t-statistic</t>
+          <t>Root size</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>p_value</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>p-value</t>
+          <t>Root morphology</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(Intercept)</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>0.353</v>
-      </c>
-      <c r="C2">
-        <v>0.2</v>
-      </c>
-      <c r="D2">
-        <v>1.761</v>
-      </c>
-      <c r="E2">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.086</t>
+          <t>Inverse Simpson Diversity</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.396 +/- 1.44</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-0.776 +/- 0.727</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.77 +/- 0.871</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.259 +/- 1.058</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EvenScaled</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>-0.103</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="D3">
-        <v>-1.033</v>
-      </c>
-      <c r="E3">
-        <v>0.308</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.308</t>
+          <t>Sp. richness</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3.379 +/- 4.65</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-5.734 +/- 2.223</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.998 +/- 2.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.503 +/- 3.518</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PC2</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>-0.059</v>
-      </c>
-      <c r="C4">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-0.841</v>
-      </c>
-      <c r="E4">
-        <v>0.405</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.405</t>
+          <t>Sp. evenness</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-6.197e^6 +/- 66.198e^6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7.252e^5 +/- 3.19e^5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.284e^5 +/- 3.999e^5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.615e^5 +/- 5.018e^5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Block</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>0.189</v>
-      </c>
-      <c r="C5">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="D5">
-        <v>2.747</v>
-      </c>
-      <c r="E5">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.009**</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>EvenScaled:PC2</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>0.03</v>
-      </c>
-      <c r="C6">
-        <v>0.146</v>
-      </c>
-      <c r="D6">
-        <v>0.206</v>
-      </c>
-      <c r="E6">
-        <v>0.838</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.838</t>
+          <t>Simpson Diversity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.447e^3 +/- 1.258e^3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-9.071e^4 +/- 6.315e^4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.578e^4 +/- 7.577e^4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8.7e^4 +/- 9.766e^4</t>
         </is>
       </c>
     </row>
@@ -566,44 +550,44 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.34</v>
+        <v>0.353</v>
       </c>
       <c r="C2">
         <v>0.2</v>
       </c>
       <c r="D2">
-        <v>1.7</v>
+        <v>1.761</v>
       </c>
       <c r="E2">
-        <v>0.097</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.097</t>
+          <t>0.086</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>richScaled</t>
+          <t>EvenScaled</t>
         </is>
       </c>
       <c r="B3">
+        <v>-0.103</v>
+      </c>
+      <c r="C3">
         <v>0.1</v>
       </c>
-      <c r="C3">
-        <v>0.096</v>
-      </c>
       <c r="D3">
-        <v>1.041</v>
+        <v>-1.033</v>
       </c>
       <c r="E3">
-        <v>0.304</v>
+        <v>0.308</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.304</t>
+          <t>0.308</t>
         </is>
       </c>
     </row>
@@ -617,17 +601,17 @@
         <v>-0.059</v>
       </c>
       <c r="C4">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D4">
-        <v>-0.789</v>
+        <v>-0.841</v>
       </c>
       <c r="E4">
-        <v>0.435</v>
+        <v>0.405</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.435</t>
+          <t>0.405</t>
         </is>
       </c>
     </row>
@@ -638,44 +622,44 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.195</v>
+        <v>0.189</v>
       </c>
       <c r="C5">
         <v>0.06900000000000001</v>
       </c>
       <c r="D5">
-        <v>2.823</v>
+        <v>2.747</v>
       </c>
       <c r="E5">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.008**</t>
+          <t>0.009**</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>richScaled:PC2</t>
+          <t>EvenScaled:PC2</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.002</v>
+        <v>0.03</v>
       </c>
       <c r="C6">
-        <v>0.106</v>
+        <v>0.146</v>
       </c>
       <c r="D6">
-        <v>0.021</v>
+        <v>0.206</v>
       </c>
       <c r="E6">
-        <v>0.984</v>
+        <v>0.838</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.984</t>
+          <t>0.838</t>
         </is>
       </c>
     </row>
@@ -731,44 +715,44 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.367</v>
+        <v>0.34</v>
       </c>
       <c r="C2">
-        <v>0.201</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <v>1.827</v>
+        <v>1.7</v>
       </c>
       <c r="E2">
-        <v>0.076</v>
+        <v>0.097</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.076</t>
+          <t>0.097</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>InvSimScaled</t>
+          <t>richScaled</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.061</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
-        <v>0.141</v>
+        <v>0.096</v>
       </c>
       <c r="D3">
-        <v>0.433</v>
+        <v>1.041</v>
       </c>
       <c r="E3">
-        <v>0.668</v>
+        <v>0.304</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.668</t>
+          <t>0.304</t>
         </is>
       </c>
     </row>
@@ -779,20 +763,20 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.033</v>
+        <v>-0.059</v>
       </c>
       <c r="C4">
-        <v>0.08400000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="D4">
-        <v>-0.396</v>
+        <v>-0.789</v>
       </c>
       <c r="E4">
-        <v>0.694</v>
+        <v>0.435</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.694</t>
+          <t>0.435</t>
         </is>
       </c>
     </row>
@@ -803,13 +787,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.196</v>
+        <v>0.195</v>
       </c>
       <c r="C5">
-        <v>0.07000000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D5">
-        <v>2.784</v>
+        <v>2.823</v>
       </c>
       <c r="E5">
         <v>0.008</v>
@@ -823,24 +807,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>InvSimScaled:PC2</t>
+          <t>richScaled:PC2</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.039</v>
+        <v>0.002</v>
       </c>
       <c r="C6">
-        <v>0.11</v>
+        <v>0.106</v>
       </c>
       <c r="D6">
-        <v>0.359</v>
+        <v>0.021</v>
       </c>
       <c r="E6">
-        <v>0.722</v>
+        <v>0.984</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.722</t>
+          <t>0.984</t>
         </is>
       </c>
     </row>
@@ -851,7 +835,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -860,243 +844,153 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Term</t>
+          <t>term</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>b</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>meansq</t>
+          <t>t-statistic</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>F-value</t>
+          <t>p_value</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>p.value</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>p-value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EvenScaled</t>
+          <t>(Intercept)</t>
         </is>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.367</v>
       </c>
       <c r="C2">
-        <v>0.448</v>
+        <v>0.201</v>
       </c>
       <c r="D2">
-        <v>0.448</v>
+        <v>1.827</v>
       </c>
       <c r="E2">
-        <v>0.673</v>
-      </c>
-      <c r="F2">
-        <v>0.413</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.413</t>
+        <v>0.076</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.076</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>InvSimScaled</t>
         </is>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.061</v>
       </c>
       <c r="C3">
-        <v>0.454</v>
+        <v>0.141</v>
       </c>
       <c r="D3">
-        <v>0.454</v>
+        <v>0.433</v>
       </c>
       <c r="E3">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.41</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.41</t>
+        <v>0.668</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.668</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Block</t>
+          <t>PC2</t>
         </is>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-0.033</v>
       </c>
       <c r="C4">
-        <v>7.154</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D4">
-        <v>7.154</v>
+        <v>-0.396</v>
       </c>
       <c r="E4">
-        <v>10.746</v>
-      </c>
-      <c r="F4">
-        <v>0.001</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.001**</t>
+        <v>0.694</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.694</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PC2</t>
+          <t>Block</t>
         </is>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.196</v>
       </c>
       <c r="C5">
-        <v>1.451</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D5">
-        <v>1.451</v>
+        <v>2.784</v>
       </c>
       <c r="E5">
-        <v>2.179</v>
-      </c>
-      <c r="F5">
-        <v>0.142</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.142</t>
+        <v>0.008</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.008**</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EvenScaled:TRT</t>
+          <t>InvSimScaled:PC2</t>
         </is>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.039</v>
       </c>
       <c r="C6">
-        <v>0.536</v>
+        <v>0.11</v>
       </c>
       <c r="D6">
-        <v>0.536</v>
+        <v>0.359</v>
       </c>
       <c r="E6">
-        <v>0.8050000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.371</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.371</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EvenScaled:Block</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0.002</v>
-      </c>
-      <c r="D7">
-        <v>0.002</v>
-      </c>
-      <c r="E7">
-        <v>0.004</v>
-      </c>
-      <c r="F7">
-        <v>0.952</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.952</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>EvenScaled:PC2</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1.66</v>
-      </c>
-      <c r="D8">
-        <v>1.66</v>
-      </c>
-      <c r="E8">
-        <v>2.493</v>
-      </c>
-      <c r="F8">
-        <v>0.116</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.116</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Residuals</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>150</v>
-      </c>
-      <c r="C9">
-        <v>99.869</v>
-      </c>
-      <c r="D9">
-        <v>0.666</v>
+        <v>0.722</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.722</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,27 +1046,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>InvSimScaled</t>
+          <t>EvenScaled</t>
         </is>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.99</v>
+        <v>0.448</v>
       </c>
       <c r="D2">
-        <v>0.99</v>
+        <v>0.448</v>
       </c>
       <c r="E2">
-        <v>1.504</v>
+        <v>0.673</v>
       </c>
       <c r="F2">
-        <v>0.222</v>
+        <v>0.413</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.222</t>
+          <t>0.413</t>
         </is>
       </c>
     </row>
@@ -1186,20 +1080,20 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.277</v>
+        <v>0.454</v>
       </c>
       <c r="D3">
-        <v>0.277</v>
+        <v>0.454</v>
       </c>
       <c r="E3">
-        <v>0.421</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F3">
-        <v>0.517</v>
+        <v>0.41</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.517</t>
+          <t>0.41</t>
         </is>
       </c>
     </row>
@@ -1213,13 +1107,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7.347</v>
+        <v>7.154</v>
       </c>
       <c r="D4">
-        <v>7.347</v>
+        <v>7.154</v>
       </c>
       <c r="E4">
-        <v>11.156</v>
+        <v>10.746</v>
       </c>
       <c r="F4">
         <v>0.001</v>
@@ -1240,101 +1134,101 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.338</v>
+        <v>1.451</v>
       </c>
       <c r="D5">
-        <v>1.338</v>
+        <v>1.451</v>
       </c>
       <c r="E5">
-        <v>2.032</v>
+        <v>2.179</v>
       </c>
       <c r="F5">
-        <v>0.156</v>
+        <v>0.142</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>0.142</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>InvSimScaled:TRT</t>
+          <t>EvenScaled:TRT</t>
         </is>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8050000000000001</v>
       </c>
       <c r="F6">
-        <v>0.988</v>
+        <v>0.371</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.988</t>
+          <t>0.371</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>InvSimScaled:Block</t>
+          <t>EvenScaled:Block</t>
         </is>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2.603</v>
+        <v>0.002</v>
       </c>
       <c r="D7">
-        <v>2.603</v>
+        <v>0.002</v>
       </c>
       <c r="E7">
-        <v>3.953</v>
+        <v>0.004</v>
       </c>
       <c r="F7">
-        <v>0.049</v>
+        <v>0.952</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.049*</t>
+          <t>0.952</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>InvSimScaled:PC2</t>
+          <t>EvenScaled:PC2</t>
         </is>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.24</v>
+        <v>1.66</v>
       </c>
       <c r="D8">
-        <v>0.24</v>
+        <v>1.66</v>
       </c>
       <c r="E8">
-        <v>0.364</v>
+        <v>2.493</v>
       </c>
       <c r="F8">
-        <v>0.547</v>
+        <v>0.116</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.547</t>
+          <t>0.116</t>
         </is>
       </c>
     </row>
@@ -1348,10 +1242,10 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>98.779</v>
+        <v>99.869</v>
       </c>
       <c r="D9">
-        <v>0.659</v>
+        <v>0.666</v>
       </c>
     </row>
   </sheetData>
@@ -1407,6 +1301,261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>InvSimScaled</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.99</v>
+      </c>
+      <c r="D2">
+        <v>0.99</v>
+      </c>
+      <c r="E2">
+        <v>1.504</v>
+      </c>
+      <c r="F2">
+        <v>0.222</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.222</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.277</v>
+      </c>
+      <c r="D3">
+        <v>0.277</v>
+      </c>
+      <c r="E3">
+        <v>0.421</v>
+      </c>
+      <c r="F3">
+        <v>0.517</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.517</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Block</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>7.347</v>
+      </c>
+      <c r="D4">
+        <v>7.347</v>
+      </c>
+      <c r="E4">
+        <v>11.156</v>
+      </c>
+      <c r="F4">
+        <v>0.001</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.001**</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.338</v>
+      </c>
+      <c r="D5">
+        <v>1.338</v>
+      </c>
+      <c r="E5">
+        <v>2.032</v>
+      </c>
+      <c r="F5">
+        <v>0.156</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.156</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InvSimScaled:TRT</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.988</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.988</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>InvSimScaled:Block</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2.603</v>
+      </c>
+      <c r="D7">
+        <v>2.603</v>
+      </c>
+      <c r="E7">
+        <v>3.953</v>
+      </c>
+      <c r="F7">
+        <v>0.049</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.049*</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>InvSimScaled:PC2</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.24</v>
+      </c>
+      <c r="D8">
+        <v>0.24</v>
+      </c>
+      <c r="E8">
+        <v>0.364</v>
+      </c>
+      <c r="F8">
+        <v>0.547</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.547</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Residuals</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>98.779</v>
+      </c>
+      <c r="D9">
+        <v>0.659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>meansq</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>F-value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>p.value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>richScaled</t>
         </is>
       </c>

--- a/MainAnalysis/manuscript_tables.xlsx
+++ b/MainAnalysis/manuscript_tables.xlsx
@@ -11,9 +11,11 @@
     <sheet name="cntrl_even_res" sheetId="2" r:id="rId2"/>
     <sheet name="cntrl_rich_res" sheetId="3" r:id="rId3"/>
     <sheet name="cntrl_invsim_res" sheetId="4" r:id="rId4"/>
-    <sheet name="ancova_even" sheetId="5" r:id="rId5"/>
-    <sheet name="ancova_invsim" sheetId="6" r:id="rId6"/>
-    <sheet name="ancova_rich" sheetId="7" r:id="rId7"/>
+    <sheet name="cntrl_sim_res" sheetId="5" r:id="rId5"/>
+    <sheet name="ancova_even" sheetId="6" r:id="rId6"/>
+    <sheet name="ancova_invsim" sheetId="7" r:id="rId7"/>
+    <sheet name="ancova_sim" sheetId="8" r:id="rId8"/>
+    <sheet name="ancova_rich" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1000,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1009,243 +1011,153 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Term</t>
+          <t>term</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>b</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>meansq</t>
+          <t>t-statistic</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>F-value</t>
+          <t>p_value</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>p.value</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>p-value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EvenScaled</t>
+          <t>(Intercept)</t>
         </is>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="C2">
-        <v>0.448</v>
+        <v>0.202</v>
       </c>
       <c r="D2">
-        <v>0.448</v>
+        <v>1.786</v>
       </c>
       <c r="E2">
-        <v>0.673</v>
-      </c>
-      <c r="F2">
-        <v>0.413</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.413</t>
+        <v>0.082</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.082</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TRT</t>
+          <t>SimScaled</t>
         </is>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="C3">
-        <v>0.454</v>
+        <v>0.127</v>
       </c>
       <c r="D3">
-        <v>0.454</v>
+        <v>0.314</v>
       </c>
       <c r="E3">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.41</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.41</t>
+        <v>0.755</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.755</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Block</t>
+          <t>PC2</t>
         </is>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-0.035</v>
       </c>
       <c r="C4">
-        <v>7.154</v>
+        <v>0.077</v>
       </c>
       <c r="D4">
-        <v>7.154</v>
+        <v>-0.46</v>
       </c>
       <c r="E4">
-        <v>10.746</v>
-      </c>
-      <c r="F4">
-        <v>0.001</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.001**</t>
+        <v>0.648</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.648</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PC2</t>
+          <t>Block</t>
         </is>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.196</v>
       </c>
       <c r="C5">
-        <v>1.451</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D5">
-        <v>1.451</v>
+        <v>2.791</v>
       </c>
       <c r="E5">
-        <v>2.179</v>
-      </c>
-      <c r="F5">
-        <v>0.142</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.142</t>
+        <v>0.008</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.008**</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EvenScaled:TRT</t>
+          <t>SimScaled:PC2</t>
         </is>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.038</v>
       </c>
       <c r="C6">
-        <v>0.536</v>
+        <v>0.093</v>
       </c>
       <c r="D6">
-        <v>0.536</v>
+        <v>0.413</v>
       </c>
       <c r="E6">
-        <v>0.8050000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.371</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.371</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EvenScaled:Block</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0.002</v>
-      </c>
-      <c r="D7">
-        <v>0.002</v>
-      </c>
-      <c r="E7">
-        <v>0.004</v>
-      </c>
-      <c r="F7">
-        <v>0.952</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.952</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>EvenScaled:PC2</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1.66</v>
-      </c>
-      <c r="D8">
-        <v>1.66</v>
-      </c>
-      <c r="E8">
-        <v>2.493</v>
-      </c>
-      <c r="F8">
-        <v>0.116</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.116</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Residuals</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>150</v>
-      </c>
-      <c r="C9">
-        <v>99.869</v>
-      </c>
-      <c r="D9">
-        <v>0.666</v>
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.682</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1301,27 +1213,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>InvSimScaled</t>
+          <t>EvenScaled</t>
         </is>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.99</v>
+        <v>0.448</v>
       </c>
       <c r="D2">
-        <v>0.99</v>
+        <v>0.448</v>
       </c>
       <c r="E2">
-        <v>1.504</v>
+        <v>0.673</v>
       </c>
       <c r="F2">
-        <v>0.222</v>
+        <v>0.413</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.222</t>
+          <t>0.413</t>
         </is>
       </c>
     </row>
@@ -1335,20 +1247,20 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.277</v>
+        <v>0.454</v>
       </c>
       <c r="D3">
-        <v>0.277</v>
+        <v>0.454</v>
       </c>
       <c r="E3">
-        <v>0.421</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F3">
-        <v>0.517</v>
+        <v>0.41</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.517</t>
+          <t>0.41</t>
         </is>
       </c>
     </row>
@@ -1362,13 +1274,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7.347</v>
+        <v>7.154</v>
       </c>
       <c r="D4">
-        <v>7.347</v>
+        <v>7.154</v>
       </c>
       <c r="E4">
-        <v>11.156</v>
+        <v>10.746</v>
       </c>
       <c r="F4">
         <v>0.001</v>
@@ -1389,101 +1301,101 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.338</v>
+        <v>1.451</v>
       </c>
       <c r="D5">
-        <v>1.338</v>
+        <v>1.451</v>
       </c>
       <c r="E5">
-        <v>2.032</v>
+        <v>2.179</v>
       </c>
       <c r="F5">
-        <v>0.156</v>
+        <v>0.142</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>0.142</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>InvSimScaled:TRT</t>
+          <t>EvenScaled:TRT</t>
         </is>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8050000000000001</v>
       </c>
       <c r="F6">
-        <v>0.988</v>
+        <v>0.371</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.988</t>
+          <t>0.371</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>InvSimScaled:Block</t>
+          <t>EvenScaled:Block</t>
         </is>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2.603</v>
+        <v>0.002</v>
       </c>
       <c r="D7">
-        <v>2.603</v>
+        <v>0.002</v>
       </c>
       <c r="E7">
-        <v>3.953</v>
+        <v>0.004</v>
       </c>
       <c r="F7">
-        <v>0.049</v>
+        <v>0.952</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.049*</t>
+          <t>0.952</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>InvSimScaled:PC2</t>
+          <t>EvenScaled:PC2</t>
         </is>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.24</v>
+        <v>1.66</v>
       </c>
       <c r="D8">
-        <v>0.24</v>
+        <v>1.66</v>
       </c>
       <c r="E8">
-        <v>0.364</v>
+        <v>2.493</v>
       </c>
       <c r="F8">
-        <v>0.547</v>
+        <v>0.116</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.547</t>
+          <t>0.116</t>
         </is>
       </c>
     </row>
@@ -1497,10 +1409,10 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>98.779</v>
+        <v>99.869</v>
       </c>
       <c r="D9">
-        <v>0.659</v>
+        <v>0.666</v>
       </c>
     </row>
   </sheetData>
@@ -1556,6 +1468,516 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>InvSimScaled</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.99</v>
+      </c>
+      <c r="D2">
+        <v>0.99</v>
+      </c>
+      <c r="E2">
+        <v>1.504</v>
+      </c>
+      <c r="F2">
+        <v>0.222</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.222</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.277</v>
+      </c>
+      <c r="D3">
+        <v>0.277</v>
+      </c>
+      <c r="E3">
+        <v>0.421</v>
+      </c>
+      <c r="F3">
+        <v>0.517</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.517</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Block</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>7.347</v>
+      </c>
+      <c r="D4">
+        <v>7.347</v>
+      </c>
+      <c r="E4">
+        <v>11.156</v>
+      </c>
+      <c r="F4">
+        <v>0.001</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.001**</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.338</v>
+      </c>
+      <c r="D5">
+        <v>1.338</v>
+      </c>
+      <c r="E5">
+        <v>2.032</v>
+      </c>
+      <c r="F5">
+        <v>0.156</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.156</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InvSimScaled:TRT</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.988</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.988</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>InvSimScaled:Block</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2.603</v>
+      </c>
+      <c r="D7">
+        <v>2.603</v>
+      </c>
+      <c r="E7">
+        <v>3.953</v>
+      </c>
+      <c r="F7">
+        <v>0.049</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.049*</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>InvSimScaled:PC2</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.24</v>
+      </c>
+      <c r="D8">
+        <v>0.24</v>
+      </c>
+      <c r="E8">
+        <v>0.364</v>
+      </c>
+      <c r="F8">
+        <v>0.547</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.547</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Residuals</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>98.779</v>
+      </c>
+      <c r="D9">
+        <v>0.659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>meansq</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>F-value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>p.value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SimScaled</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.476</v>
+      </c>
+      <c r="D2">
+        <v>0.476</v>
+      </c>
+      <c r="E2">
+        <v>0.717</v>
+      </c>
+      <c r="F2">
+        <v>0.399</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.399</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.357</v>
+      </c>
+      <c r="D3">
+        <v>0.357</v>
+      </c>
+      <c r="E3">
+        <v>0.537</v>
+      </c>
+      <c r="F3">
+        <v>0.465</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.465</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Block</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>7.452</v>
+      </c>
+      <c r="D4">
+        <v>7.452</v>
+      </c>
+      <c r="E4">
+        <v>11.211</v>
+      </c>
+      <c r="F4">
+        <v>0.001</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.001**</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.398</v>
+      </c>
+      <c r="D5">
+        <v>1.398</v>
+      </c>
+      <c r="E5">
+        <v>2.103</v>
+      </c>
+      <c r="F5">
+        <v>0.149</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.149</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SimScaled:TRT</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.985</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.985</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SimScaled:Block</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2.005</v>
+      </c>
+      <c r="D7">
+        <v>2.005</v>
+      </c>
+      <c r="E7">
+        <v>3.016</v>
+      </c>
+      <c r="F7">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.084</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SimScaled:PC2</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.18</v>
+      </c>
+      <c r="D8">
+        <v>0.18</v>
+      </c>
+      <c r="E8">
+        <v>0.271</v>
+      </c>
+      <c r="F8">
+        <v>0.604</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.604</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Residuals</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>99.706</v>
+      </c>
+      <c r="D9">
+        <v>0.665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>meansq</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>F-value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>p.value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>richScaled</t>
         </is>
       </c>
